--- a/user.xlsx
+++ b/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coder\Telefonica_app_listo\Guillermo_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DACEDB-C3E5-4CC6-87E7-3C322CA8D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DDE9D-B3C6-48A0-BFD4-066F5C812721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>GAMARRA60</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>passwords</t>
+  </si>
+  <si>
+    <t>Giancarlos</t>
+  </si>
+  <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
+    <t>cardenas10</t>
   </si>
 </sst>
 </file>
@@ -859,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1E014-6749-4C05-B403-F95103DC245F}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,6 +1452,17 @@
         <v>152</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user.xlsx
+++ b/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coder\Telefonica_app_listo\Guillermo_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DDE9D-B3C6-48A0-BFD4-066F5C812721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A98358-ADE2-4574-B881-E40369FF3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>GAMARRA60</t>
   </si>
@@ -511,6 +511,42 @@
   </si>
   <si>
     <t>cardenas10</t>
+  </si>
+  <si>
+    <t>walter</t>
+  </si>
+  <si>
+    <t>avila20231</t>
+  </si>
+  <si>
+    <t>huaringa$99</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>retamozo20231</t>
+  </si>
+  <si>
+    <t>venegas$98</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>vargas20231</t>
+  </si>
+  <si>
+    <t>pomassonco$97</t>
+  </si>
+  <si>
+    <t>esteban</t>
+  </si>
+  <si>
+    <t>epiquin20231</t>
+  </si>
+  <si>
+    <t>mejico$96</t>
   </si>
 </sst>
 </file>
@@ -868,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1E014-6749-4C05-B403-F95103DC245F}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,6 +1499,50 @@
         <v>158</v>
       </c>
     </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user.xlsx
+++ b/user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coder\Telefonica_app_listo\Guillermo_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A98358-ADE2-4574-B881-E40369FF3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8DDB35-E955-4223-8B86-C9166D47894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>GAMARRA60</t>
   </si>
@@ -547,13 +547,22 @@
   </si>
   <si>
     <t>mejico$96</t>
+  </si>
+  <si>
+    <t>Eber Hinostroza</t>
+  </si>
+  <si>
+    <t>Hinostroza</t>
+  </si>
+  <si>
+    <t>Hinostroza$40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +576,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -576,7 +591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -584,12 +599,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1E014-6749-4C05-B403-F95103DC245F}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,7 +1565,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -1541,10 +1574,22 @@
       </c>
       <c r="C57" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/user.xlsx
+++ b/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coder\Telefonica_app_listo\Guillermo_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8DDB35-E955-4223-8B86-C9166D47894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6DF35-32D4-4F57-9D5B-2652CD5D0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>GAMARRA60</t>
   </si>
@@ -556,6 +556,150 @@
   </si>
   <si>
     <t>Hinostroza$40</t>
+  </si>
+  <si>
+    <t>Hyafher Julinho</t>
+  </si>
+  <si>
+    <t>hfloresmo</t>
+  </si>
+  <si>
+    <t>hfloresmo$23</t>
+  </si>
+  <si>
+    <t>Abel Lucas</t>
+  </si>
+  <si>
+    <t>agarciani</t>
+  </si>
+  <si>
+    <t>agarciani$23</t>
+  </si>
+  <si>
+    <t>Jorge Alonso</t>
+  </si>
+  <si>
+    <t>jgonzalespar</t>
+  </si>
+  <si>
+    <t>jgonzalespar$23</t>
+  </si>
+  <si>
+    <t>CHRISTIAN LEON</t>
+  </si>
+  <si>
+    <t>cleontr</t>
+  </si>
+  <si>
+    <t>cleontr$23</t>
+  </si>
+  <si>
+    <t>Yanina Edith</t>
+  </si>
+  <si>
+    <t>yminayan</t>
+  </si>
+  <si>
+    <t>yminayan$23</t>
+  </si>
+  <si>
+    <t>Manuel Alexsander</t>
+  </si>
+  <si>
+    <t>mtrellesf</t>
+  </si>
+  <si>
+    <t>mtrellesf$23</t>
+  </si>
+  <si>
+    <t>Amparo Cecilia</t>
+  </si>
+  <si>
+    <t>acarrioney</t>
+  </si>
+  <si>
+    <t>acarrioney$23</t>
+  </si>
+  <si>
+    <t>Jaimito Enrique</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Enrique$23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ana</t>
+  </si>
+  <si>
+    <t>aestradam</t>
+  </si>
+  <si>
+    <t>aestradam$23</t>
+  </si>
+  <si>
+    <t>Ethel Cristel</t>
+  </si>
+  <si>
+    <t>efelexhuam</t>
+  </si>
+  <si>
+    <t>efelexhuam$23</t>
+  </si>
+  <si>
+    <t>Patrik Giovanni</t>
+  </si>
+  <si>
+    <t>pluism</t>
+  </si>
+  <si>
+    <t>pluism$23</t>
+  </si>
+  <si>
+    <t>Claudia Gianela</t>
+  </si>
+  <si>
+    <t>cramirezpe</t>
+  </si>
+  <si>
+    <t>cramirezpe$23</t>
+  </si>
+  <si>
+    <t>Christian Jhoao</t>
+  </si>
+  <si>
+    <t>ccorala</t>
+  </si>
+  <si>
+    <t>ccorala$23</t>
+  </si>
+  <si>
+    <t>Fabian Leonardo</t>
+  </si>
+  <si>
+    <t>fbrownl</t>
+  </si>
+  <si>
+    <t>fbrownl$23</t>
+  </si>
+  <si>
+    <t>Randolph Castillo</t>
+  </si>
+  <si>
+    <t>rcastillope</t>
+  </si>
+  <si>
+    <t>rcastillope$23</t>
+  </si>
+  <si>
+    <t>Tommy Nick</t>
+  </si>
+  <si>
+    <t>tparip</t>
+  </si>
+  <si>
+    <t>tparip$23</t>
   </si>
 </sst>
 </file>
@@ -618,11 +762,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,642 +1082,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1E014-6749-4C05-B403-F95103DC245F}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1585,6 +1731,182 @@
       </c>
       <c r="C58" s="1" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/user.xlsx
+++ b/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coder\Telefonica_app_listo\Guillermo_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6DF35-32D4-4F57-9D5B-2652CD5D0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDC7E0-2803-4C88-BBFF-B722FDE599A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A178679-9F1D-425A-94C8-1C3B10842524}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>GAMARRA60</t>
   </si>
@@ -700,13 +700,67 @@
   </si>
   <si>
     <t>tparip$23</t>
+  </si>
+  <si>
+    <t>Alfredo Medina</t>
+  </si>
+  <si>
+    <t>Amedina</t>
+  </si>
+  <si>
+    <t>Amedina$23</t>
+  </si>
+  <si>
+    <t>John Jairo Bravo</t>
+  </si>
+  <si>
+    <t>jbravob</t>
+  </si>
+  <si>
+    <t>jbravob$29</t>
+  </si>
+  <si>
+    <t>Mauro Arturo Garcia</t>
+  </si>
+  <si>
+    <t>Mauroar</t>
+  </si>
+  <si>
+    <t>Mauroar$28</t>
+  </si>
+  <si>
+    <t>Marco Bravo</t>
+  </si>
+  <si>
+    <t>Mbravo</t>
+  </si>
+  <si>
+    <t>Mbravo$23</t>
+  </si>
+  <si>
+    <t>Jennyfer Martinez</t>
+  </si>
+  <si>
+    <t>Jmartinez</t>
+  </si>
+  <si>
+    <t>Jmartinez$23</t>
+  </si>
+  <si>
+    <t>Johana Argote</t>
+  </si>
+  <si>
+    <t>JArgote</t>
+  </si>
+  <si>
+    <t>Jargote$23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,13 +780,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -762,12 +828,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,643 +1153,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF1E014-6749-4C05-B403-F95103DC245F}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1734,179 +1804,245 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
